--- a/Data_frame/balancos_definitivos/OPCT3.xlsx
+++ b/Data_frame/balancos_definitivos/OPCT3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,16 @@
           <t>31/12/2023</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -574,6 +584,12 @@
       <c r="Q2" t="n">
         <v>2383269.888</v>
       </c>
+      <c r="R2" t="n">
+        <v>2456846.08</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2537076.992</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -629,6 +645,12 @@
       <c r="Q3" t="n">
         <v>695406.976</v>
       </c>
+      <c r="R3" t="n">
+        <v>746212.992</v>
+      </c>
+      <c r="S3" t="n">
+        <v>728403.968</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -684,6 +706,12 @@
       <c r="Q4" t="n">
         <v>214287.008</v>
       </c>
+      <c r="R4" t="n">
+        <v>188668</v>
+      </c>
+      <c r="S4" t="n">
+        <v>251338</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -739,6 +767,12 @@
       <c r="Q5" t="n">
         <v>43492</v>
       </c>
+      <c r="R5" t="n">
+        <v>38035</v>
+      </c>
+      <c r="S5" t="n">
+        <v>51212</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -794,6 +828,12 @@
       <c r="Q6" t="n">
         <v>341116</v>
       </c>
+      <c r="R6" t="n">
+        <v>426723.008</v>
+      </c>
+      <c r="S6" t="n">
+        <v>305188.992</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -849,6 +889,12 @@
       <c r="Q7" t="n">
         <v>4942</v>
       </c>
+      <c r="R7" t="n">
+        <v>6052</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5198</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -904,6 +950,12 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -959,6 +1011,12 @@
       <c r="Q9" t="n">
         <v>51099</v>
       </c>
+      <c r="R9" t="n">
+        <v>56125</v>
+      </c>
+      <c r="S9" t="n">
+        <v>76806</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1014,6 +1072,12 @@
       <c r="Q10" t="n">
         <v>19765</v>
       </c>
+      <c r="R10" t="n">
+        <v>18323</v>
+      </c>
+      <c r="S10" t="n">
+        <v>14505</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1069,6 +1133,12 @@
       <c r="Q11" t="n">
         <v>20706</v>
       </c>
+      <c r="R11" t="n">
+        <v>12287</v>
+      </c>
+      <c r="S11" t="n">
+        <v>24156</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1124,6 +1194,12 @@
       <c r="Q12" t="n">
         <v>231242</v>
       </c>
+      <c r="R12" t="n">
+        <v>229846</v>
+      </c>
+      <c r="S12" t="n">
+        <v>217374</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1179,6 +1255,12 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1234,6 +1316,12 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1289,6 +1377,12 @@
       <c r="Q15" t="n">
         <v>7286</v>
       </c>
+      <c r="R15" t="n">
+        <v>9724</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10182</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1344,6 +1438,12 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1399,6 +1499,12 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1454,6 +1560,12 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1509,6 +1621,12 @@
       <c r="Q19" t="n">
         <v>173619.008</v>
       </c>
+      <c r="R19" t="n">
+        <v>165588.992</v>
+      </c>
+      <c r="S19" t="n">
+        <v>152128</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1564,6 +1682,12 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1619,6 +1743,12 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1674,6 +1804,12 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1729,6 +1865,12 @@
       <c r="Q23" t="n">
         <v>1442299.008</v>
       </c>
+      <c r="R23" t="n">
+        <v>1466139.008</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1575522.944</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1784,6 +1926,12 @@
       <c r="Q24" t="n">
         <v>14322</v>
       </c>
+      <c r="R24" t="n">
+        <v>14648</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15776</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1839,6 +1987,12 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1894,6 +2048,12 @@
       <c r="Q26" t="n">
         <v>2383269.888</v>
       </c>
+      <c r="R26" t="n">
+        <v>2456846.08</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2537076.992</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1949,6 +2109,12 @@
       <c r="Q27" t="n">
         <v>564990.976</v>
       </c>
+      <c r="R27" t="n">
+        <v>622953.9840000001</v>
+      </c>
+      <c r="S27" t="n">
+        <v>625985.024</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2004,6 +2170,12 @@
       <c r="Q28" t="n">
         <v>112532</v>
       </c>
+      <c r="R28" t="n">
+        <v>112009</v>
+      </c>
+      <c r="S28" t="n">
+        <v>109922</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2059,6 +2231,12 @@
       <c r="Q29" t="n">
         <v>110712</v>
       </c>
+      <c r="R29" t="n">
+        <v>138852.992</v>
+      </c>
+      <c r="S29" t="n">
+        <v>80681</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2114,6 +2292,12 @@
       <c r="Q30" t="n">
         <v>30048</v>
       </c>
+      <c r="R30" t="n">
+        <v>28867</v>
+      </c>
+      <c r="S30" t="n">
+        <v>24608</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2169,6 +2353,12 @@
       <c r="Q31" t="n">
         <v>267480</v>
       </c>
+      <c r="R31" t="n">
+        <v>298872.992</v>
+      </c>
+      <c r="S31" t="n">
+        <v>353313.984</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2224,6 +2414,12 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2279,6 +2475,12 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2334,6 +2536,12 @@
       <c r="Q34" t="n">
         <v>44219</v>
       </c>
+      <c r="R34" t="n">
+        <v>44352</v>
+      </c>
+      <c r="S34" t="n">
+        <v>57460</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2389,6 +2597,12 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2444,6 +2658,12 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2499,6 +2719,12 @@
       <c r="Q37" t="n">
         <v>1029910.016</v>
       </c>
+      <c r="R37" t="n">
+        <v>1001251.008</v>
+      </c>
+      <c r="S37" t="n">
+        <v>998876.032</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2554,6 +2780,12 @@
       <c r="Q38" t="n">
         <v>914344</v>
       </c>
+      <c r="R38" t="n">
+        <v>890603.008</v>
+      </c>
+      <c r="S38" t="n">
+        <v>913593.024</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2609,6 +2841,12 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2664,6 +2902,12 @@
       <c r="Q40" t="n">
         <v>85503</v>
       </c>
+      <c r="R40" t="n">
+        <v>80710</v>
+      </c>
+      <c r="S40" t="n">
+        <v>73475</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2719,6 +2963,12 @@
       <c r="Q41" t="n">
         <v>1044</v>
       </c>
+      <c r="R41" t="n">
+        <v>1078</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2774,6 +3024,12 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2829,6 +3085,12 @@
       <c r="Q43" t="n">
         <v>29019</v>
       </c>
+      <c r="R43" t="n">
+        <v>28860</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10609</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2884,6 +3146,12 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2939,6 +3207,12 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2994,6 +3268,12 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3049,6 +3329,12 @@
       <c r="Q47" t="n">
         <v>788369.024</v>
       </c>
+      <c r="R47" t="n">
+        <v>832641.024</v>
+      </c>
+      <c r="S47" t="n">
+        <v>912216</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3104,6 +3390,12 @@
       <c r="Q48" t="n">
         <v>803662.976</v>
       </c>
+      <c r="R48" t="n">
+        <v>803662.976</v>
+      </c>
+      <c r="S48" t="n">
+        <v>803662.976</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3159,6 +3451,12 @@
       <c r="Q49" t="n">
         <v>87231</v>
       </c>
+      <c r="R49" t="n">
+        <v>87694</v>
+      </c>
+      <c r="S49" t="n">
+        <v>87989</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3214,6 +3512,12 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3269,6 +3573,12 @@
       <c r="Q51" t="n">
         <v>-339</v>
       </c>
+      <c r="R51" t="n">
+        <v>1443</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1047</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3324,6 +3634,12 @@
       <c r="Q52" t="n">
         <v>-69496</v>
       </c>
+      <c r="R52" t="n">
+        <v>-48359</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-53052</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3379,6 +3695,12 @@
       <c r="Q53" t="n">
         <v>862</v>
       </c>
+      <c r="R53" t="n">
+        <v>-217</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-3198</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3434,6 +3756,12 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3489,6 +3817,12 @@
       <c r="Q55" t="n">
         <v>-33552</v>
       </c>
+      <c r="R55" t="n">
+        <v>-11583</v>
+      </c>
+      <c r="S55" t="n">
+        <v>75767</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3542,6 +3876,12 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3567,6 +3907,8 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3590,6 +3932,8 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3641,6 +3985,12 @@
       <c r="Q59" t="n">
         <v>462552.928</v>
       </c>
+      <c r="R59" t="n">
+        <v>490028</v>
+      </c>
+      <c r="S59" t="n">
+        <v>383608.992</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3692,6 +4042,12 @@
       <c r="Q60" t="n">
         <v>-350338.976</v>
       </c>
+      <c r="R60" t="n">
+        <v>-354999.008</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-283115.008</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3743,6 +4099,12 @@
       <c r="Q61" t="n">
         <v>112213.984</v>
       </c>
+      <c r="R61" t="n">
+        <v>135028.992</v>
+      </c>
+      <c r="S61" t="n">
+        <v>100494</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3792,6 +4154,12 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3845,6 +4213,12 @@
       <c r="Q63" t="n">
         <v>-53010.008</v>
       </c>
+      <c r="R63" t="n">
+        <v>-43144</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-44053</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3895,6 +4269,12 @@
       </c>
       <c r="Q64" t="n">
         <v>-5650</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3947,6 +4327,12 @@
       <c r="Q65" t="n">
         <v>1049</v>
       </c>
+      <c r="R65" t="n">
+        <v>394</v>
+      </c>
+      <c r="S65" t="n">
+        <v>26450</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3998,6 +4384,12 @@
       <c r="Q66" t="n">
         <v>1824</v>
       </c>
+      <c r="R66" t="n">
+        <v>-4803</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4049,6 +4441,12 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4100,6 +4498,12 @@
       <c r="Q68" t="n">
         <v>-29960</v>
       </c>
+      <c r="R68" t="n">
+        <v>-47132</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-76768</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4151,6 +4555,12 @@
       <c r="Q69" t="n">
         <v>24891</v>
       </c>
+      <c r="R69" t="n">
+        <v>7945</v>
+      </c>
+      <c r="S69" t="n">
+        <v>8337</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4201,6 +4611,12 @@
       </c>
       <c r="Q70" t="n">
         <v>-54851</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-55077</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-85105</v>
       </c>
     </row>
     <row r="71">
@@ -4225,6 +4641,8 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4248,6 +4666,8 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4271,6 +4691,8 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4322,6 +4744,12 @@
       <c r="Q74" t="n">
         <v>26467</v>
       </c>
+      <c r="R74" t="n">
+        <v>40344</v>
+      </c>
+      <c r="S74" t="n">
+        <v>6123</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4373,6 +4801,12 @@
       <c r="Q75" t="n">
         <v>-9216</v>
       </c>
+      <c r="R75" t="n">
+        <v>-11504</v>
+      </c>
+      <c r="S75" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4423,6 +4857,12 @@
       </c>
       <c r="Q76" t="n">
         <v>3368</v>
+      </c>
+      <c r="R76" t="n">
+        <v>-7703</v>
+      </c>
+      <c r="S76" t="n">
+        <v>-11171</v>
       </c>
     </row>
     <row r="77">
@@ -4447,6 +4887,8 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4470,6 +4912,8 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4520,6 +4964,12 @@
       </c>
       <c r="Q79" t="n">
         <v>72167</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4571,6 +5021,12 @@
       </c>
       <c r="Q80" t="n">
         <v>92786</v>
+      </c>
+      <c r="R80" t="n">
+        <v>21137</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-4693</v>
       </c>
     </row>
   </sheetData>
